--- a/R_dataset.xlsx
+++ b/R_dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cerde\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cerde\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64CEFAE9-B4EB-490B-9BE0-0D13E562C37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB7F432-0867-4CF7-A740-0CD4B943D4EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{65C3CDD6-0D4E-4347-B49C-6A5F00BBEF2F}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B86775-8E8E-4409-A73D-1E69F5DDED7A}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -632,6 +632,17 @@
         <v>85</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>85</v>
+      </c>
+      <c r="C22">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
